--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-element-gonogo.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
